--- a/pre/PROVIMI.xlsx
+++ b/pre/PROVIMI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Heston\PreOrder Sheets\New Pre Order Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrik\Downloads\Viking-master\Viking-master\pre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC01BE8-4D7B-4EAD-9C7F-D9A2DD00DFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B782E7B5-360A-48D8-9144-2DE3BB73DE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -444,7 +444,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -916,7 +915,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H49"/>
+      <selection activeCell="E20" sqref="E20:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,643 +923,582 @@
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="104.7109375" customWidth="1"/>
     <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="11" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="11" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="11" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="11" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="11" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="9" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="6"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="22">
-        <v>44888</v>
-      </c>
-      <c r="F20" s="22">
-        <v>44902</v>
-      </c>
-      <c r="G20" s="22">
-        <v>44916</v>
-      </c>
-      <c r="H20" s="22">
-        <v>44930</v>
-      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="22">
-        <v>44909</v>
-      </c>
-      <c r="F21" s="22">
-        <v>44923</v>
-      </c>
-      <c r="G21" s="22">
-        <v>44937</v>
-      </c>
-      <c r="H21" s="22">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
